--- a/src/main/resources/modules/MENU.xlsx
+++ b/src/main/resources/modules/MENU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\seleniumTestingFramework\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B0F8EF-EFD6-4146-94EA-2F103C64C427}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812819B9-AB02-4141-B7EF-824E9F1C53DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="259">
   <si>
     <t>Client</t>
   </si>
@@ -459,9 +459,6 @@
     <t>MENU.Projects.formUpload</t>
   </si>
   <si>
-    <t>Projects,Add,Reports</t>
-  </si>
-  <si>
     <t>Reports</t>
   </si>
   <si>
@@ -741,9 +738,6 @@
     <t>Portfolio Insight,User Events</t>
   </si>
   <si>
-    <t>orMENU.PortfolioInsight.or_globalsearch</t>
-  </si>
-  <si>
     <t>PortfolioInsightMenu</t>
   </si>
   <si>
@@ -783,20 +777,44 @@
     <t>MENU.PortfolioInsight.or_userevents</t>
   </si>
   <si>
-    <t>Portfolio Insight,Add,Lease,DEFAULT,Equipment</t>
-  </si>
-  <si>
-    <t>Portfolio Insight,Add,Lease,DEFAULT,Real Estate Contract</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>MENU.PortfolioInsight.or_globalsearch</t>
+  </si>
+  <si>
+    <t>UIBase.refreshPage</t>
+  </si>
+  <si>
+    <t>Home page refresh</t>
+  </si>
+  <si>
+    <t>Projects,Reports</t>
+  </si>
+  <si>
+    <t>Help,Knowledge Center</t>
+  </si>
+  <si>
+    <t>Knowledge Center</t>
+  </si>
+  <si>
+    <t>Navigate to My Help &gt; Knowledge Center</t>
+  </si>
+  <si>
+    <t>Knowledge Center page</t>
+  </si>
+  <si>
+    <t>MENU.MyAccount.knowledgeLogo</t>
+  </si>
+  <si>
+    <t>Portfolio Insight,Add,Lease,Default,Equipment</t>
+  </si>
+  <si>
+    <t>Portfolio Insight,Add,Lease,Default,Real Estate Contract</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,6 +925,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFC66D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1132,7 +1156,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1467,13 +1491,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="608">
+  <dxfs count="612">
     <dxf>
       <fill>
         <patternFill>
@@ -3249,6 +3276,34 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6164,13 +6219,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D2" s="110" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="110" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6202,7 +6257,7 @@
         <v>128</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
@@ -6219,16 +6274,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="26"/>
@@ -6243,7 +6298,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>3</v>
@@ -10698,8 +10753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF929EE-1E41-4807-A0A5-57B5DA8A4C0A}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I19"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69:J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10751,7 +10806,7 @@
       <c r="A2" s="97"/>
       <c r="B2" s="98"/>
       <c r="C2" s="91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="91"/>
       <c r="E2" s="91"/>
@@ -10799,10 +10854,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="95" t="s">
         <v>189</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>190</v>
       </c>
       <c r="E4" s="95" t="s">
         <v>24</v>
@@ -10811,7 +10866,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H4" s="95"/>
       <c r="I4" s="95" t="s">
@@ -10829,7 +10884,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="95" t="s">
@@ -10853,16 +10908,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="100" t="s">
         <v>130</v>
       </c>
       <c r="F6" s="96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G6" s="102"/>
       <c r="H6" s="95"/>
@@ -10901,7 +10956,7 @@
       <c r="A8" s="92"/>
       <c r="B8" s="104"/>
       <c r="C8" s="91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="105"/>
       <c r="E8" s="105"/>
@@ -10947,10 +11002,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="95" t="s">
         <v>194</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>195</v>
       </c>
       <c r="E10" s="95" t="s">
         <v>24</v>
@@ -10959,7 +11014,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="95" t="s">
@@ -10977,7 +11032,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="95" t="s">
@@ -11001,16 +11056,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" s="100" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G12" s="102"/>
       <c r="H12" s="95"/>
@@ -11049,7 +11104,7 @@
       <c r="A14" s="92"/>
       <c r="B14" s="104"/>
       <c r="C14" s="91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="105"/>
       <c r="E14" s="105"/>
@@ -11081,7 +11136,7 @@
       <c r="G15" s="95"/>
       <c r="H15" s="95"/>
       <c r="I15" s="95" t="s">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="J15" s="100" t="s">
         <v>13</v>
@@ -11095,10 +11150,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="95" t="s">
         <v>198</v>
-      </c>
-      <c r="D16" s="95" t="s">
-        <v>199</v>
       </c>
       <c r="E16" s="95" t="s">
         <v>24</v>
@@ -11107,11 +11162,11 @@
         <v>31</v>
       </c>
       <c r="G16" s="95" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H16" s="95"/>
       <c r="I16" s="95" t="s">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="J16" s="100" t="s">
         <v>3</v>
@@ -11125,7 +11180,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="102"/>
       <c r="E17" s="95" t="s">
@@ -11135,7 +11190,7 @@
       <c r="G17" s="95"/>
       <c r="H17" s="95"/>
       <c r="I17" s="95" t="s">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="J17" s="100" t="s">
         <v>13</v>
@@ -11149,21 +11204,21 @@
         <v>4</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="100" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="96" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G18" s="102"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95" t="s">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="J18" s="100" t="s">
         <v>13</v>
@@ -11187,7 +11242,7 @@
       </c>
       <c r="G19"/>
       <c r="I19" s="95" t="s">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="J19" s="100" t="s">
         <v>13</v>
@@ -11197,7 +11252,7 @@
       <c r="A20" s="92"/>
       <c r="B20" s="104"/>
       <c r="C20" s="91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D20" s="105"/>
       <c r="E20" s="105"/>
@@ -11243,10 +11298,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="95" t="s">
         <v>201</v>
-      </c>
-      <c r="D22" s="95" t="s">
-        <v>202</v>
       </c>
       <c r="E22" s="95" t="s">
         <v>24</v>
@@ -11255,14 +11310,14 @@
         <v>31</v>
       </c>
       <c r="G22" s="95" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H22" s="95"/>
       <c r="I22" s="95" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="100" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11273,7 +11328,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="102"/>
       <c r="E23" s="95" t="s">
@@ -11297,16 +11352,16 @@
         <v>4</v>
       </c>
       <c r="C24" s="96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" s="95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" s="100" t="s">
         <v>130</v>
       </c>
       <c r="F24" s="96" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G24" s="102"/>
       <c r="H24" s="95"/>
@@ -11345,7 +11400,7 @@
       <c r="A26" s="92"/>
       <c r="B26" s="104"/>
       <c r="C26" s="91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="105"/>
       <c r="E26" s="105"/>
@@ -11391,10 +11446,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="95" t="s">
         <v>204</v>
-      </c>
-      <c r="D28" s="95" t="s">
-        <v>205</v>
       </c>
       <c r="E28" s="95" t="s">
         <v>24</v>
@@ -11403,7 +11458,7 @@
         <v>31</v>
       </c>
       <c r="G28" s="95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H28" s="95"/>
       <c r="I28" s="95" t="s">
@@ -11421,7 +11476,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" s="102"/>
       <c r="E29" s="95" t="s">
@@ -11445,16 +11500,16 @@
         <v>4</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D30" s="95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E30" s="100" t="s">
         <v>130</v>
       </c>
       <c r="F30" s="96" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G30" s="102"/>
       <c r="H30" s="95"/>
@@ -11493,7 +11548,7 @@
       <c r="A32" s="92"/>
       <c r="B32" s="104"/>
       <c r="C32" s="91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="105"/>
       <c r="E32" s="105"/>
@@ -11539,10 +11594,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="95" t="s">
         <v>209</v>
-      </c>
-      <c r="D34" s="95" t="s">
-        <v>210</v>
       </c>
       <c r="E34" s="95" t="s">
         <v>24</v>
@@ -11551,7 +11606,7 @@
         <v>31</v>
       </c>
       <c r="G34" s="95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H34" s="95"/>
       <c r="I34" s="95" t="s">
@@ -11569,7 +11624,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" s="102"/>
       <c r="E35" s="95" t="s">
@@ -11593,16 +11648,16 @@
         <v>4</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36" s="100" t="s">
         <v>130</v>
       </c>
       <c r="F36" s="96" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G36" s="102"/>
       <c r="H36" s="95"/>
@@ -11641,7 +11696,7 @@
       <c r="A38" s="92"/>
       <c r="B38" s="104"/>
       <c r="C38" s="91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="105"/>
       <c r="E38" s="105"/>
@@ -11687,10 +11742,10 @@
         <v>2</v>
       </c>
       <c r="C40" s="94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E40" s="95" t="s">
         <v>24</v>
@@ -11699,14 +11754,14 @@
         <v>31</v>
       </c>
       <c r="G40" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H40" s="95"/>
       <c r="I40" s="95" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="100" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -11717,7 +11772,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D41" s="102"/>
       <c r="E41" s="95" t="s">
@@ -11741,16 +11796,16 @@
         <v>4</v>
       </c>
       <c r="C42" s="108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E42" s="100" t="s">
         <v>130</v>
       </c>
       <c r="F42" s="96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G42" s="102"/>
       <c r="H42" s="95"/>
@@ -11789,7 +11844,7 @@
       <c r="A44" s="92"/>
       <c r="B44" s="104"/>
       <c r="C44" s="91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D44" s="105"/>
       <c r="E44" s="105"/>
@@ -11835,10 +11890,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="95" t="s">
         <v>217</v>
-      </c>
-      <c r="D46" s="95" t="s">
-        <v>218</v>
       </c>
       <c r="E46" s="95" t="s">
         <v>24</v>
@@ -11847,14 +11902,14 @@
         <v>31</v>
       </c>
       <c r="G46" s="95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H46" s="95"/>
       <c r="I46" s="95" t="s">
         <v>3</v>
       </c>
       <c r="J46" s="100" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -11865,7 +11920,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D47" s="102"/>
       <c r="E47" s="95" t="s">
@@ -11889,16 +11944,16 @@
         <v>4</v>
       </c>
       <c r="C48" s="94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E48" s="100" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G48" s="102"/>
       <c r="H48" s="95"/>
@@ -11937,7 +11992,7 @@
       <c r="A50" s="92"/>
       <c r="B50" s="104"/>
       <c r="C50" s="91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D50" s="105"/>
       <c r="E50" s="105"/>
@@ -11983,10 +12038,10 @@
         <v>2</v>
       </c>
       <c r="C52" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="95" t="s">
         <v>221</v>
-      </c>
-      <c r="D52" s="95" t="s">
-        <v>222</v>
       </c>
       <c r="E52" s="95" t="s">
         <v>24</v>
@@ -11995,14 +12050,14 @@
         <v>31</v>
       </c>
       <c r="G52" s="95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H52" s="95"/>
       <c r="I52" s="95" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="100" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -12013,7 +12068,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D53" s="102"/>
       <c r="E53" s="95" t="s">
@@ -12037,16 +12092,16 @@
         <v>4</v>
       </c>
       <c r="C54" s="96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D54" s="95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" s="100" t="s">
         <v>130</v>
       </c>
       <c r="F54" s="96" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="G54" s="102"/>
       <c r="H54" s="95"/>
@@ -12085,7 +12140,7 @@
       <c r="A56" s="92"/>
       <c r="B56" s="104"/>
       <c r="C56" s="91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D56" s="105"/>
       <c r="E56" s="105"/>
@@ -12131,10 +12186,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="95" t="s">
         <v>225</v>
-      </c>
-      <c r="D58" s="95" t="s">
-        <v>226</v>
       </c>
       <c r="E58" s="95" t="s">
         <v>24</v>
@@ -12143,14 +12198,14 @@
         <v>31</v>
       </c>
       <c r="G58" s="95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H58" s="95"/>
       <c r="I58" s="95" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="100" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12161,7 +12216,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D59" s="102"/>
       <c r="E59" s="95" t="s">
@@ -12185,16 +12240,16 @@
         <v>4</v>
       </c>
       <c r="C60" s="94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D60" s="95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E60" s="100" t="s">
         <v>23</v>
       </c>
       <c r="F60" s="96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G60" s="102"/>
       <c r="H60" s="95"/>
@@ -12233,7 +12288,7 @@
       <c r="A62" s="92"/>
       <c r="B62" s="104"/>
       <c r="C62" s="91" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D62" s="105"/>
       <c r="E62" s="105"/>
@@ -12279,10 +12334,10 @@
         <v>2</v>
       </c>
       <c r="C64" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="95" t="s">
         <v>229</v>
-      </c>
-      <c r="D64" s="95" t="s">
-        <v>230</v>
       </c>
       <c r="E64" s="95" t="s">
         <v>24</v>
@@ -12291,14 +12346,14 @@
         <v>31</v>
       </c>
       <c r="G64" s="95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H64" s="95"/>
       <c r="I64" s="95" t="s">
         <v>3</v>
       </c>
       <c r="J64" s="100" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -12309,7 +12364,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="102"/>
       <c r="E65" s="95" t="s">
@@ -12333,16 +12388,16 @@
         <v>4</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" s="95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E66" s="100" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G66" s="102"/>
       <c r="H66" s="95"/>
@@ -12381,7 +12436,7 @@
       <c r="A68" s="92"/>
       <c r="B68" s="104"/>
       <c r="C68" s="91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D68" s="105"/>
       <c r="E68" s="105"/>
@@ -12427,10 +12482,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="95" t="s">
         <v>233</v>
-      </c>
-      <c r="D70" s="95" t="s">
-        <v>234</v>
       </c>
       <c r="E70" s="95" t="s">
         <v>24</v>
@@ -12439,14 +12494,14 @@
         <v>31</v>
       </c>
       <c r="G70" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H70" s="95"/>
       <c r="I70" s="95" t="s">
         <v>3</v>
       </c>
       <c r="J70" s="100" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -12457,7 +12512,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="102"/>
       <c r="E71" s="95" t="s">
@@ -12481,16 +12536,16 @@
         <v>4</v>
       </c>
       <c r="C72" s="94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D72" s="95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E72" s="100" t="s">
         <v>23</v>
       </c>
       <c r="F72" s="96" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G72" s="102"/>
       <c r="H72" s="95"/>
@@ -12527,376 +12582,376 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="607" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="606" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="117" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H27 H32 H37 H42">
-    <cfRule type="cellIs" dxfId="605" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="112" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H27 H32 H37 H42">
-    <cfRule type="cellIs" dxfId="604" priority="110" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="110" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="607" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="cellIs" dxfId="602" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="cellIs" dxfId="601" priority="106" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="106" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="604" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="599" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="598" priority="102" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="102" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="601" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="cellIs" dxfId="596" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="cellIs" dxfId="595" priority="98" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="98" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="593" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="592" priority="94" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="94" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="595" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="590" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="92" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="589" priority="90" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="90" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="592" priority="91" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="587" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="586" priority="86" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="589" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="584" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="583" priority="82" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="82" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="581" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="580" priority="78" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="78" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="583" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="cellIs" dxfId="578" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="cellIs" dxfId="577" priority="74" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="74" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="580" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="575" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="574" priority="70" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="70" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="cellIs" dxfId="572" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="cellIs" dxfId="571" priority="66" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="66" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="569" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="568" priority="62" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="62" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="571" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="cellIs" dxfId="566" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="cellIs" dxfId="565" priority="58" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="58" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="568" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="563" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="562" priority="54" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="54" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="565" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H44">
-    <cfRule type="cellIs" dxfId="560" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H44">
-    <cfRule type="cellIs" dxfId="559" priority="50" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="562" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="557" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="556" priority="46" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="46" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="554" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="553" priority="42" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="42" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="556" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="551" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="550" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="553" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="548" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="547" priority="34" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="545" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="544" priority="30" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="30" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="547" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H59">
-    <cfRule type="cellIs" dxfId="542" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H59">
-    <cfRule type="cellIs" dxfId="541" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="539" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="538" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="541" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="cellIs" dxfId="536" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="cellIs" dxfId="535" priority="18" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="18" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="533" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="532" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="535" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="530" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="529" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="10" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="532" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H20">
-    <cfRule type="cellIs" dxfId="527" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H20">
-    <cfRule type="cellIs" dxfId="526" priority="6" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="529" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="524" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="523" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13689,7 +13744,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>38</v>
@@ -13817,10 +13872,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>24</v>
@@ -13829,7 +13884,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H18" s="61"/>
       <c r="I18" s="65" t="s">
@@ -13868,19 +13923,19 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="80" t="s">
         <v>179</v>
-      </c>
-      <c r="G20" s="80" t="s">
-        <v>180</v>
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="65" t="s">
@@ -15050,376 +15105,376 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="489" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="155" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="488" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="157" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H27 H32 H37 H42">
-    <cfRule type="cellIs" dxfId="487" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="152" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 H27 H32 H37 H42">
-    <cfRule type="cellIs" dxfId="486" priority="150" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="150" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="489" priority="151" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="cellIs" dxfId="484" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="116" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="cellIs" dxfId="483" priority="114" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="114" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="481" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="112" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="480" priority="110" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="110" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="cellIs" dxfId="478" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="cellIs" dxfId="477" priority="106" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="106" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="480" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="475" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="474" priority="102" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="102" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="477" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="472" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="471" priority="98" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="98" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="469" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="468" priority="94" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="94" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="471" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="466" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="465" priority="82" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="82" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="463" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="462" priority="78" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="78" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="465" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="cellIs" dxfId="460" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="cellIs" dxfId="459" priority="74" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="74" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="457" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="456" priority="70" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="70" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="459" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="cellIs" dxfId="454" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="cellIs" dxfId="453" priority="66" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="66" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="456" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="451" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="450" priority="62" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="62" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="453" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="cellIs" dxfId="448" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="cellIs" dxfId="447" priority="58" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="58" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="445" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="444" priority="54" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="54" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H44">
-    <cfRule type="cellIs" dxfId="442" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H44">
-    <cfRule type="cellIs" dxfId="441" priority="50" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="439" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="438" priority="46" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="46" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="441" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="436" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="435" priority="42" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="42" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="433" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="432" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="430" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="429" priority="34" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="427" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="426" priority="30" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="30" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="429" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H59">
-    <cfRule type="cellIs" dxfId="424" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H59">
-    <cfRule type="cellIs" dxfId="423" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="421" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="420" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="cellIs" dxfId="418" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="cellIs" dxfId="417" priority="18" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="18" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="415" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="414" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="417" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="412" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="411" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="10" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H20">
-    <cfRule type="cellIs" dxfId="409" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H20">
-    <cfRule type="cellIs" dxfId="408" priority="6" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="406" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="405" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15867,10 +15922,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABB2D1A-7639-47B7-AA25-4EB6EE795A0A}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16212,10 +16267,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>24</v>
@@ -16224,7 +16279,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H13" s="61"/>
       <c r="I13" s="65" t="s">
@@ -16263,14 +16318,14 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="80"/>
       <c r="E15" s="4" t="s">
         <v>130</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15" s="80"/>
       <c r="H15" s="73"/>
@@ -16575,794 +16630,881 @@
       <c r="I27" s="65"/>
       <c r="J27" s="66"/>
     </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="57">
+        <v>1</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>31</v>
+      </c>
       <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
+      <c r="H28" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="66" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="57">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>252</v>
+      </c>
       <c r="H29" s="61"/>
-      <c r="I29" s="65"/>
+      <c r="I29" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="66"/>
+      <c r="A30" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="58">
+        <v>3</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
       <c r="H30" s="73"/>
-      <c r="I30" s="71"/>
+      <c r="I30" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
+      <c r="A31" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="58">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="80"/>
+      <c r="E31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" s="80"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="66"/>
-    </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
+      <c r="A32" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="57">
+        <v>4</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
+      <c r="I33" s="71"/>
       <c r="J33" s="66"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="57"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="63"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="62"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="61"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
       <c r="I34" s="65"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="66"/>
+    </row>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="71"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="65"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="71"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="67"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="71"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="65"/>
       <c r="J37" s="66"/>
     </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="64"/>
-      <c r="I38" s="65"/>
+      <c r="I38" s="71"/>
       <c r="J38" s="66"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="57"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="63"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="62"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="61"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
       <c r="I39" s="65"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="66"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="71"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="65"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="66"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="71"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="67"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="71"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="66"/>
     </row>
-    <row r="43" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="65"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="71"/>
       <c r="J43" s="66"/>
     </row>
-    <row r="44" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="57"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="63"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
       <c r="F44" s="62"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="61"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="64"/>
       <c r="I44" s="65"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="66"/>
+    </row>
+    <row r="45" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="71"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="65"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="66"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="71"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="74"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="67"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="71"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="65"/>
       <c r="J47" s="66"/>
     </row>
-    <row r="48" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="65"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="71"/>
       <c r="J48" s="66"/>
     </row>
-    <row r="49" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
       <c r="B49" s="57"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="63"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="62"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="61"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="64"/>
       <c r="I49" s="65"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="66"/>
+    </row>
+    <row r="50" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="71"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="65"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="66"/>
-    </row>
-    <row r="53" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="66"/>
-    </row>
-    <row r="54" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="58"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="71"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="66"/>
+    </row>
+    <row r="54" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
       <c r="B54" s="57"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="63"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
       <c r="F54" s="62"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="61"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="64"/>
       <c r="I54" s="65"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="66"/>
+    </row>
+    <row r="55" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="80"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="79"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="71"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="65"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="66"/>
-    </row>
-    <row r="58" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="66"/>
-    </row>
-    <row r="59" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="58"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="71"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="66"/>
+    </row>
+    <row r="59" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="57"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="63"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
       <c r="F59" s="62"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="61"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="64"/>
       <c r="I59" s="65"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="66"/>
+    </row>
+    <row r="60" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="80"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="79"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="71"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="65"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="66"/>
-    </row>
-    <row r="63" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="66"/>
-    </row>
-    <row r="64" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="58"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="66"/>
+    </row>
+    <row r="64" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="57"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="63"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
       <c r="F64" s="62"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="61"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="64"/>
       <c r="I64" s="65"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="66"/>
+    </row>
+    <row r="65" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="80"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="79"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="71"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="65"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="66"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="83" t="s">
+      <c r="B66" s="58"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="71"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="66"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="83" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H22 H27 H32 H37 H42">
-    <cfRule type="cellIs" dxfId="371" priority="152" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22 H27 H32 H37 H42">
-    <cfRule type="cellIs" dxfId="370" priority="150" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="151" operator="equal">
+  <conditionalFormatting sqref="H22 H27 H33 H38 H43">
+    <cfRule type="cellIs" dxfId="375" priority="164" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22 H27 H33 H38 H43">
+    <cfRule type="cellIs" dxfId="374" priority="162" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="163" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="cellIs" dxfId="368" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="160" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="cellIs" dxfId="367" priority="146" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="158" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="159" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="365" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="156" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="364" priority="142" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="154" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="155" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H35">
+    <cfRule type="cellIs" dxfId="366" priority="112" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H35">
+    <cfRule type="cellIs" dxfId="365" priority="110" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="111" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="363" priority="108" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="362" priority="106" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="107" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H40">
+    <cfRule type="cellIs" dxfId="360" priority="104" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H40">
+    <cfRule type="cellIs" dxfId="359" priority="102" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="103" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="357" priority="100" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="356" priority="98" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="99" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H45">
+    <cfRule type="cellIs" dxfId="354" priority="96" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H45">
+    <cfRule type="cellIs" dxfId="353" priority="94" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="95" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="351" priority="92" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="350" priority="90" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="91" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:H50">
+    <cfRule type="cellIs" dxfId="348" priority="88" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:H50">
+    <cfRule type="cellIs" dxfId="347" priority="86" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="87" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="345" priority="84" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="344" priority="82" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="83" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:H55">
+    <cfRule type="cellIs" dxfId="342" priority="80" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:H55">
+    <cfRule type="cellIs" dxfId="341" priority="78" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="79" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="339" priority="76" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="338" priority="74" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="75" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:H60">
+    <cfRule type="cellIs" dxfId="336" priority="72" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:H60">
+    <cfRule type="cellIs" dxfId="335" priority="70" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="71" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="333" priority="68" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="332" priority="66" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="67" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64:H65">
+    <cfRule type="cellIs" dxfId="330" priority="64" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64:H65">
+    <cfRule type="cellIs" dxfId="329" priority="62" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="63" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="327" priority="60" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="326" priority="58" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="59" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H8">
+    <cfRule type="cellIs" dxfId="324" priority="56" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H8">
+    <cfRule type="cellIs" dxfId="323" priority="54" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="55" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="321" priority="52" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="320" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="51" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H19">
+    <cfRule type="cellIs" dxfId="318" priority="40" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H19">
+    <cfRule type="cellIs" dxfId="317" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="39" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="315" priority="36" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="314" priority="34" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="35" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H24">
+    <cfRule type="cellIs" dxfId="312" priority="32" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H24">
+    <cfRule type="cellIs" dxfId="311" priority="30" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="31" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="309" priority="28" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="308" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="27" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="cellIs" dxfId="306" priority="24" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="cellIs" dxfId="305" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="23" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="cellIs" dxfId="303" priority="20" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="cellIs" dxfId="302" priority="18" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="19" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="300" priority="16" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="299" priority="14" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="cellIs" dxfId="362" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="cellIs" dxfId="361" priority="106" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="107" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="359" priority="104" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="358" priority="102" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="103" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H34">
-    <cfRule type="cellIs" dxfId="356" priority="100" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H34">
-    <cfRule type="cellIs" dxfId="355" priority="98" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="99" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="353" priority="96" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="352" priority="94" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="95" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
-    <cfRule type="cellIs" dxfId="350" priority="92" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
-    <cfRule type="cellIs" dxfId="349" priority="90" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="91" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="347" priority="88" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="346" priority="86" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="87" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H44">
-    <cfRule type="cellIs" dxfId="344" priority="84" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H44">
-    <cfRule type="cellIs" dxfId="343" priority="82" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="83" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="341" priority="80" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="340" priority="78" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="79" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="338" priority="76" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H49">
-    <cfRule type="cellIs" dxfId="337" priority="74" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="75" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="335" priority="72" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="334" priority="70" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="71" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="332" priority="68" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H54">
-    <cfRule type="cellIs" dxfId="331" priority="66" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="67" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="329" priority="64" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="328" priority="62" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="63" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H59">
-    <cfRule type="cellIs" dxfId="326" priority="60" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H59">
-    <cfRule type="cellIs" dxfId="325" priority="58" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="59" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="323" priority="56" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="322" priority="54" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="55" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63:H64">
-    <cfRule type="cellIs" dxfId="320" priority="52" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63:H64">
-    <cfRule type="cellIs" dxfId="319" priority="50" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="51" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="317" priority="48" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="316" priority="46" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="47" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H8">
-    <cfRule type="cellIs" dxfId="314" priority="44" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H8">
-    <cfRule type="cellIs" dxfId="313" priority="42" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="43" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="311" priority="40" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="310" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="39" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
-    <cfRule type="cellIs" dxfId="308" priority="28" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
-    <cfRule type="cellIs" dxfId="307" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="27" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="305" priority="24" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="304" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="23" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="302" priority="20" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="301" priority="18" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="19" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="299" priority="16" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="298" priority="14" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="15" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="296" priority="12" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="295" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="11" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
-    <cfRule type="cellIs" dxfId="293" priority="8" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
-    <cfRule type="cellIs" dxfId="292" priority="6" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="7" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="290" priority="4" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="289" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="10" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="11" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="294" priority="8" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="293" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H43:H44 H2:H3 H63:H64 H7:H8 H22:H24 H18:H19 H27:H29 H32:H34 H37:H39 H48:H49 H53:H54 H58:H59 H12:H13" xr:uid="{A27EDF69-6B2D-43F6-9725-EA45AEB0CE6A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H44:H45 H2:H3 H64:H65 H7:H8 H22:H24 H18:H19 H12:H13 H33:H35 H38:H40 H49:H50 H54:H55 H59:H60 H27:H29" xr:uid="{A27EDF69-6B2D-43F6-9725-EA45AEB0CE6A}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -17372,7 +17514,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{02D0A8DB-9E1B-4520-BB85-C610FB85EBB2}">
+          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{02D0A8DB-9E1B-4520-BB85-C610FB85EBB2}">
             <xm:f>[sample.xlsx]Controller!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -17385,7 +17527,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="149" operator="equal" id="{F215DD27-209E-4C19-AF2C-CE0B58142667}">
+          <x14:cfRule type="cellIs" priority="161" operator="equal" id="{F215DD27-209E-4C19-AF2C-CE0B58142667}">
             <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -17395,10 +17537,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H22 H27 H32 H37 H42</xm:sqref>
+          <xm:sqref>H22 H27 H33 H38 H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="145" operator="equal" id="{44FDDBE9-1BD7-4516-9783-F24825395312}">
+          <x14:cfRule type="cellIs" priority="157" operator="equal" id="{44FDDBE9-1BD7-4516-9783-F24825395312}">
             <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -17411,7 +17553,7 @@
           <xm:sqref>H2:H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="141" operator="equal" id="{9AF426A4-C7B3-4313-A982-5830D6F12DD1}">
+          <x14:cfRule type="cellIs" priority="153" operator="equal" id="{9AF426A4-C7B3-4313-A982-5830D6F12DD1}">
             <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -17424,7 +17566,306 @@
           <xm:sqref>H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{6265D0CE-7CEE-4583-AD21-54FDACA718F9}">
+          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{9A890A38-BE4D-4C07-B9E3-C0A28ABDF482}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H34:H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="105" operator="equal" id="{9D31FAFE-7016-47AB-97AF-AFF721A0418B}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="101" operator="equal" id="{EBED6CB5-7654-43C9-B045-77D50E74197B}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H39:H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{2BCD5CE9-B14F-4E67-A2B6-39BDA10CFC24}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{22EF3AC4-FDFE-4FAA-B1F2-B01AB727B65E}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H44:H45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="89" operator="equal" id="{2C6DF134-F59B-4868-953A-F463ADDA9AF7}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{7E715A07-6734-43D0-8A61-023D2FB09B6B}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H49:H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{2309AC1E-1D36-4BC2-B609-56582675E613}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="77" operator="equal" id="{75767CB8-52D3-4686-AA62-42DBA81BA93B}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H54:H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{B4F1B801-2FA7-481A-BFCC-E732F9664BA4}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{357CFE65-667E-4E0B-AB6A-4134D293A760}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H59:H60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{D54CCD2F-6E53-4304-B78E-D4B5D5F83223}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{A9F6CBCB-90C0-4558-BF74-5480C02C9028}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H64:H65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{137D8AC8-1810-4448-80F7-F1D7350526CB}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{D17D7D7E-F4D0-49AB-B99A-7B94A146BAA0}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H7:H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{72B141F8-FAD6-48A8-9F4B-39F36A88F5BA}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{BE57F1A8-F66A-4D53-9FDC-76AC2DB7C1DD}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H18:H19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{D2302053-820B-4140-96FB-3F966FF257D4}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{C4DC8AB4-1274-4622-96AD-7828217A6EE9}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H23:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{D245D83F-955F-47D3-9FFD-BA0F0B8291D2}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{D0E47574-7A3B-4F16-8FDB-5117947774B6}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H12:H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{E7B49312-FAAE-4A32-A300-AC6FE9EDECBF}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H14:H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{52DE6986-3BEA-4AF2-B10F-56A96FBF94FC}">
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{EE2C27B8-D3B4-45C5-A43B-A29069D2E92B}">
             <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -17437,8 +17878,21 @@
           <xm:sqref>H28:H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="101" operator="equal" id="{9A890A38-BE4D-4C07-B9E3-C0A28ABDF482}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{0263C5BB-2AFD-4BA5-A898-36C3B3D964E7}">
             <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{73DEE9DD-B88B-4FC6-9E68-CAB1B787C4E8}">
+            <xm:f>ReportsMenu!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17450,7 +17904,30 @@
           <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{222854ED-C8B8-4655-89CD-CE3992D37913}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{AF27B142-A383-4098-AAA1-F4C36F1818FD}">
+            <xm:f>ReportsMenu!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{408A92C0-4861-4CAA-9C9A-DFA8C0F3CF8E}">
+            <xm:f>ReportsMenu!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{9AFFB749-326A-453D-AE39-0D1CC0162B93}">
             <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -17460,293 +17937,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H33:H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{9D31FAFE-7016-47AB-97AF-AFF721A0418B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="89" operator="equal" id="{EBED6CB5-7654-43C9-B045-77D50E74197B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H38:H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="85" operator="equal" id="{2BCD5CE9-B14F-4E67-A2B6-39BDA10CFC24}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{22EF3AC4-FDFE-4FAA-B1F2-B01AB727B65E}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H43:H44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="77" operator="equal" id="{2C6DF134-F59B-4868-953A-F463ADDA9AF7}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{7E715A07-6734-43D0-8A61-023D2FB09B6B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H48:H49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{2309AC1E-1D36-4BC2-B609-56582675E613}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{75767CB8-52D3-4686-AA62-42DBA81BA93B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H53:H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{B4F1B801-2FA7-481A-BFCC-E732F9664BA4}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{357CFE65-667E-4E0B-AB6A-4134D293A760}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H58:H59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{D54CCD2F-6E53-4304-B78E-D4B5D5F83223}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{A9F6CBCB-90C0-4558-BF74-5480C02C9028}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H63:H64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{137D8AC8-1810-4448-80F7-F1D7350526CB}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H65</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{D17D7D7E-F4D0-49AB-B99A-7B94A146BAA0}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H7:H8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{72B141F8-FAD6-48A8-9F4B-39F36A88F5BA}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{BE57F1A8-F66A-4D53-9FDC-76AC2DB7C1DD}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H18:H19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{D2302053-820B-4140-96FB-3F966FF257D4}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{C4DC8AB4-1274-4622-96AD-7828217A6EE9}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H23:H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{D245D83F-955F-47D3-9FFD-BA0F0B8291D2}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{D0E47574-7A3B-4F16-8FDB-5117947774B6}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H12:H13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{E7B49312-FAAE-4A32-A300-AC6FE9EDECBF}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H14:H15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{52DE6986-3BEA-4AF2-B10F-56A96FBF94FC}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
+          <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -17759,7 +17950,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J24" sqref="J24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18285,10 +18476,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>24</v>
@@ -18297,7 +18488,7 @@
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="H21" s="61"/>
       <c r="I21" s="66" t="s">
@@ -18336,7 +18527,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="79" t="s">
         <v>135</v>
@@ -18383,21 +18574,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="48" t="s">
+        <v>128</v>
+      </c>
       <c r="B25" s="58"/>
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
       <c r="D25" s="80"/>
-      <c r="E25" s="66"/>
+      <c r="E25" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="F25" s="78"/>
       <c r="G25" s="80"/>
       <c r="H25" s="73"/>
-      <c r="I25" s="65"/>
+      <c r="I25" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="66" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="57"/>
       <c r="C26" s="67"/>
       <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="67"/>
       <c r="G26" s="66"/>
       <c r="H26" s="67"/>
@@ -19703,8 +19906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9BA217-4514-445C-B162-8C49C4D6625C}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19754,7 +19957,7 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="57">
         <v>1</v>
@@ -19784,16 +19987,16 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="57">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>146</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>147</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>24</v>
@@ -19802,7 +20005,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="61"/>
       <c r="I3" s="65" t="s">
@@ -19814,25 +20017,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="58">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="73"/>
       <c r="I4" s="71" t="s">
@@ -19844,7 +20047,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="57">
         <v>5</v>
@@ -19882,7 +20085,7 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="57">
         <v>1</v>
@@ -19912,16 +20115,16 @@
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="57">
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="63" t="s">
         <v>24</v>
@@ -19930,7 +20133,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="61"/>
       <c r="I8" s="65" t="s">
@@ -19942,7 +20145,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="58">
         <v>3</v>
@@ -19963,22 +20166,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="58">
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="80" t="s">
         <v>154</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>155</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>130</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="80"/>
       <c r="H10" s="73"/>
@@ -19991,7 +20194,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="57">
         <v>5</v>
@@ -20029,7 +20232,7 @@
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="57">
         <v>1</v>
@@ -20059,16 +20262,16 @@
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="57">
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>24</v>
@@ -20077,7 +20280,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H14" s="61"/>
       <c r="I14" s="65" t="s">
@@ -20089,7 +20292,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="58">
         <v>3</v>
@@ -20110,22 +20313,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="58">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>130</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" s="80"/>
       <c r="H16" s="73"/>
@@ -20138,7 +20341,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="57">
         <v>5</v>
@@ -20175,7 +20378,7 @@
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="57">
         <v>1</v>
@@ -20205,16 +20408,16 @@
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="57">
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>24</v>
@@ -20223,7 +20426,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H20" s="61"/>
       <c r="I20" s="66" t="s">
@@ -20235,7 +20438,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="58">
         <v>3</v>
@@ -20256,22 +20459,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B22" s="58">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>130</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" s="80"/>
       <c r="H22" s="73"/>
@@ -20284,7 +20487,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="57">
         <v>5</v>
@@ -20320,7 +20523,7 @@
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="57">
         <v>1</v>
@@ -20350,16 +20553,16 @@
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="57">
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E26" s="63" t="s">
         <v>24</v>
@@ -20368,7 +20571,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H26" s="61"/>
       <c r="I26" s="65" t="s">
@@ -20380,7 +20583,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="58">
         <v>3</v>
@@ -20401,25 +20604,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="58">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E28" s="66" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G28" s="80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H28" s="73"/>
       <c r="I28" s="71" t="s">
@@ -20431,7 +20634,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="57">
         <v>5</v>
